--- a/Test Data/TestData.xlsx
+++ b/Test Data/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="115">
   <si>
     <t>URL</t>
   </si>
@@ -39,21 +39,18 @@
     <t>password</t>
   </si>
   <si>
-    <t>https://safety-red5.kuvrr.com/observer/ </t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>secret</t>
+    <t>https://ort.kuvrr.com/observer/ </t>
+  </si>
+  <si>
+    <t>lackorg@yopmail.com</t>
+  </si>
+  <si>
+    <t>12345678</t>
   </si>
   <si>
     <t>obsckorg@yopmail.com</t>
   </si>
   <si>
-    <t>12345678</t>
-  </si>
-  <si>
     <t>observergzb@yopmail.com</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>obsorgint@yopmail.com</t>
+  </si>
+  <si>
+    <t>obsorgemulator@yopmail.com </t>
   </si>
   <si>
     <t>Manul Test Scenario</t>
@@ -506,7 +506,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -515,20 +515,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -545,10 +557,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -572,20 +580,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3571428571429"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
@@ -610,59 +618,70 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://safety-red5.kuvrr.com/observer/ "/>
-    <hyperlink ref="D2" r:id="rId2" display="obsckorg@yopmail.com"/>
-    <hyperlink ref="D3" r:id="rId3" display="observergzb@yopmail.com"/>
-    <hyperlink ref="D4" r:id="rId4" display="observernoida@yopmail.com"/>
-    <hyperlink ref="D5" r:id="rId5" display="obsorgint@yopmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://ort.kuvrr.com/observer/ "/>
+    <hyperlink ref="B2" r:id="rId2" display="lackorg@yopmail.com"/>
+    <hyperlink ref="D2" r:id="rId3" display="obsckorg@yopmail.com"/>
+    <hyperlink ref="D3" r:id="rId4" display="observergzb@yopmail.com"/>
+    <hyperlink ref="D4" r:id="rId5" display="observernoida@yopmail.com"/>
+    <hyperlink ref="D5" r:id="rId6" display="obsorgint@yopmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -687,48 +706,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -761,704 +780,704 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="114.744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="109.612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.7602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="10"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="10"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="10"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="10"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="10"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="10"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="10"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="10"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="10"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="10"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="10"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="10"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="10"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="10"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="10"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="10"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="10"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="10"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="10"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="10"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="10"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="10"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="10"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="10"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="10"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="10"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="10"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="10"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="10"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="10"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="7"/>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="10"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="7"/>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="10"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="7"/>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="10"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="10"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="10"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="10"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="10"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="10"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="10"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="10"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B92" s="11"/>
-      <c r="C92" s="10"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="10"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="7"/>
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="10"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B95" s="11"/>
-      <c r="C95" s="10"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="10"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="10"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="10"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Test Data/TestData.xlsx
+++ b/Test Data/TestData.xlsx
@@ -39,7 +39,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>https://ort.kuvrr.com/observer/ </t>
+    <t>https://safety-red5.kuvrr.com/observer/ </t>
   </si>
   <si>
     <t>lackorg@yopmail.com</t>
@@ -506,13 +506,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -588,13 +592,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.3265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,65 +622,65 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4" t="s">
+      <c r="A3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://ort.kuvrr.com/observer/ "/>
+    <hyperlink ref="A2" r:id="rId1" display="https://safety-red5.kuvrr.com/observer/"/>
     <hyperlink ref="B2" r:id="rId2" display="lackorg@yopmail.com"/>
     <hyperlink ref="D2" r:id="rId3" display="obsckorg@yopmail.com"/>
     <hyperlink ref="D3" r:id="rId4" display="observergzb@yopmail.com"/>
@@ -706,47 +710,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -780,704 +785,705 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="109.612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="108.397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="7"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="7"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="7"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="7"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="7"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="7"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="7"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="7"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="7"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="7"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="7"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="7"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="7"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="7"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="7"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="7"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="7"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="7"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="7"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="7"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="7"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="7"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="7"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="7"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="7"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="7"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="7"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="7"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="7"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="7"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="7"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="8"/>
     </row>
     <row r="60" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="7"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="7"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="7"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="7"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="8"/>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="7"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="7"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="8"/>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="7"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="8"/>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="7"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="7"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="7"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="7"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="7"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="8"/>
     </row>
     <row r="72" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="7"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="8"/>
     </row>
     <row r="73" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="7"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="8"/>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="7"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="8"/>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="7"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="8"/>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="7"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="7"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="8"/>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="7"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="8"/>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="7"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="8"/>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="7"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="8"/>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="7"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="8"/>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="7"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="8"/>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="7"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="7"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="8"/>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="7"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="8"/>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="7"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="8"/>
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="7"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="8"/>
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="7"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="8"/>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="7"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="8"/>
     </row>
     <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="7"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="8"/>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="7"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="8"/>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="7"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="8"/>
     </row>
     <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="7"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="8"/>
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="7"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="8"/>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B95" s="13"/>
-      <c r="C95" s="7"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="8"/>
     </row>
     <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B96" s="13"/>
-      <c r="C96" s="7"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="8"/>
     </row>
     <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B97" s="13"/>
-      <c r="C97" s="7"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="8"/>
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B98" s="13"/>
-      <c r="C98" s="7"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Test Data/TestData.xlsx
+++ b/Test Data/TestData.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ObsLogin" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Organization" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="TC_Regression" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="DBData" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="197">
   <si>
     <t>URL</t>
   </si>
@@ -33,6 +34,9 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Local Admin</t>
+  </si>
+  <si>
     <t>Observer</t>
   </si>
   <si>
@@ -42,6 +46,12 @@
     <t>https://safety-red5.kuvrr.com/observer/ </t>
   </si>
   <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>secret</t>
+  </si>
+  <si>
     <t>lackorg@yopmail.com</t>
   </si>
   <si>
@@ -60,7 +70,253 @@
     <t>obsorgint@yopmail.com</t>
   </si>
   <si>
-    <t>obsorgemulator@yopmail.com </t>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Inactive Org</t>
+  </si>
+  <si>
+    <t>312 Granby St</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>60034</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Western Security</t>
+  </si>
+  <si>
+    <t>2100 Ventura Blvd</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>91009</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Eastern University</t>
+  </si>
+  <si>
+    <t>400 8th Ave</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>SafeTKuvrr</t>
+  </si>
+  <si>
+    <t>322 S Green Street. Suite 202</t>
+  </si>
+  <si>
+    <t>60607</t>
+  </si>
+  <si>
+    <t>GMS Empty</t>
+  </si>
+  <si>
+    <t>123 Fake Street</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>55555</t>
+  </si>
+  <si>
+    <t>OrgNCR</t>
+  </si>
+  <si>
+    <t>Ansal Plaza</t>
+  </si>
+  <si>
+    <t>Ghaziabad</t>
+  </si>
+  <si>
+    <t>201010</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>FlexRight Solutions</t>
+  </si>
+  <si>
+    <t>540 Pennsylvania Ave #323,</t>
+  </si>
+  <si>
+    <t>Fort Washington,</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>19034</t>
+  </si>
+  <si>
+    <t>Valentine Club</t>
+  </si>
+  <si>
+    <t>3400 S Emerald</t>
+  </si>
+  <si>
+    <t>60609</t>
+  </si>
+  <si>
+    <t>testNetOrg</t>
+  </si>
+  <si>
+    <t>D 338, Third Floor, Gali No- 3, Ganesh Nagar, Pandav Nagar Complex</t>
+  </si>
+  <si>
+    <t>NEW DELHI</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>110092</t>
+  </si>
+  <si>
+    <t>new Org1</t>
+  </si>
+  <si>
+    <t>new ORg1</t>
+  </si>
+  <si>
+    <t>delhi</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>110022</t>
+  </si>
+  <si>
+    <t>pkpOrg</t>
+  </si>
+  <si>
+    <t>Ansal Delhi</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>ckOrg</t>
+  </si>
+  <si>
+    <t>Ansal Plaza, Vaishali</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>ManaliORG</t>
+  </si>
+  <si>
+    <t>Himanchal</t>
+  </si>
+  <si>
+    <t>Gulaba</t>
+  </si>
+  <si>
+    <t>S &amp; O</t>
+  </si>
+  <si>
+    <t>2FCS-01 ANSAL PLAZA, VAISHALIg</t>
+  </si>
+  <si>
+    <t>GHAZIABAD</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>OrgGzb</t>
+  </si>
+  <si>
+    <t>OrgNoida</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>NS Org-1</t>
+  </si>
+  <si>
+    <t>Ansal</t>
+  </si>
+  <si>
+    <t>NS Org-2</t>
+  </si>
+  <si>
+    <t>Orgint</t>
+  </si>
+  <si>
+    <t>vaishali</t>
+  </si>
+  <si>
+    <t>ghaziabad</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Indirapuram Habitat Centre Vaibhav Khand 2 Ghaziabad uttar pradesh</t>
   </si>
   <si>
     <t>Manul Test Scenario</t>
@@ -69,19 +325,10 @@
     <t>Automation Script</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Verify Command and Control screen should automatically populate the new incident raised by the user.</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>Verify Command and Control screen displays the incident raised location on the Map. (If Device Location is ON)</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Verify Command and Control screen displays the users Profile, Health, Auto &amp; Other details for SOS events.</t>
@@ -506,7 +753,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -539,18 +786,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -561,6 +796,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -584,21 +823,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.3265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4540816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -615,77 +855,84 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>7</v>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>7</v>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://safety-red5.kuvrr.com/observer/"/>
-    <hyperlink ref="B2" r:id="rId2" display="lackorg@yopmail.com"/>
-    <hyperlink ref="D2" r:id="rId3" display="obsckorg@yopmail.com"/>
-    <hyperlink ref="D3" r:id="rId4" display="observergzb@yopmail.com"/>
-    <hyperlink ref="D4" r:id="rId5" display="observernoida@yopmail.com"/>
-    <hyperlink ref="D5" r:id="rId6" display="obsorgint@yopmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://safety-red5.kuvrr.com/observer/ "/>
+    <hyperlink ref="D2" r:id="rId2" display="lackorg@yopmail.com"/>
+    <hyperlink ref="F2" r:id="rId3" display="obsckorg@yopmail.com"/>
+    <hyperlink ref="F3" r:id="rId4" display="observergzb@yopmail.com"/>
+    <hyperlink ref="F4" r:id="rId5" display="observernoida@yopmail.com"/>
+    <hyperlink ref="F5" r:id="rId6" display="obsorgint@yopmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -702,66 +949,512 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
+      <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="obsckorg@yopmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="observergzb@yopmail.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="observernoida@yopmail.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="obsorgint@yopmail.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -780,710 +1473,706 @@
   <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="108.397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="70.1938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>15</v>
+      <c r="A1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="8"/>
+      <c r="A2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="8"/>
+      <c r="A3" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="8"/>
+      <c r="A23" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="8"/>
+      <c r="A24" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="8"/>
+      <c r="A25" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="8"/>
+      <c r="A30" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="8"/>
+      <c r="A31" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="8"/>
+      <c r="A32" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="8"/>
+      <c r="A33" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="8"/>
+      <c r="A34" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="8"/>
+      <c r="A35" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="8"/>
+      <c r="A36" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="8"/>
+      <c r="A37" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="8"/>
+      <c r="A38" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="8"/>
+      <c r="A39" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="8"/>
+      <c r="A40" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="8"/>
+      <c r="A41" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="8"/>
+      <c r="A42" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="8"/>
+      <c r="A43" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="8"/>
+      <c r="A44" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="8"/>
+      <c r="A45" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="8"/>
+      <c r="A46" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="8"/>
+      <c r="A47" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="8"/>
+      <c r="A48" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="8"/>
+      <c r="A49" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
     </row>
     <row r="50" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="8"/>
+      <c r="A50" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="8"/>
+      <c r="A51" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="8"/>
+      <c r="A52" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="11"/>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="8"/>
+      <c r="A53" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="11"/>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="8"/>
+      <c r="A54" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="8"/>
+      <c r="A55" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="8"/>
+      <c r="A56" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="11"/>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="8"/>
+      <c r="A57" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="8"/>
+      <c r="A58" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="8"/>
+      <c r="A59" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
     </row>
     <row r="60" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="8"/>
+      <c r="A60" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="8"/>
+      <c r="A61" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="8"/>
+      <c r="A62" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="8"/>
+      <c r="A63" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="11"/>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="8"/>
+      <c r="A64" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="12"/>
+      <c r="C64" s="11"/>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="8"/>
+      <c r="A65" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="C65" s="11"/>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="8"/>
+      <c r="A66" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="11"/>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="8"/>
+      <c r="A67" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="11"/>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="8"/>
+      <c r="A68" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="11"/>
     </row>
     <row r="69" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="8"/>
+      <c r="A69" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="11"/>
     </row>
     <row r="70" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="8"/>
+      <c r="A70" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="11"/>
     </row>
     <row r="71" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="8"/>
+      <c r="A71" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="11"/>
     </row>
     <row r="72" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="8"/>
+      <c r="A72" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72" s="12"/>
+      <c r="C72" s="11"/>
     </row>
     <row r="73" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="8"/>
+      <c r="A73" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" s="12"/>
+      <c r="C73" s="11"/>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="8"/>
+      <c r="A74" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B74" s="12"/>
+      <c r="C74" s="11"/>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="8"/>
+      <c r="A75" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B75" s="12"/>
+      <c r="C75" s="11"/>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="8"/>
+      <c r="A76" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="11"/>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="8"/>
+      <c r="A77" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B77" s="12"/>
+      <c r="C77" s="11"/>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="8"/>
+      <c r="A78" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B78" s="12"/>
+      <c r="C78" s="11"/>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="8"/>
+      <c r="A79" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79" s="12"/>
+      <c r="C79" s="11"/>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="8"/>
+      <c r="A80" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="11"/>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="8"/>
+      <c r="A81" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="11"/>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="8"/>
+      <c r="A82" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="11"/>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="8"/>
+      <c r="A83" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B83" s="12"/>
+      <c r="C83" s="11"/>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="8"/>
+      <c r="A84" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="12"/>
+      <c r="C84" s="11"/>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="8"/>
+      <c r="A85" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" s="12"/>
+      <c r="C85" s="11"/>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="8"/>
+      <c r="A86" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" s="12"/>
+      <c r="C86" s="11"/>
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="8"/>
+      <c r="A87" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B87" s="12"/>
+      <c r="C87" s="11"/>
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="8"/>
+      <c r="A88" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B88" s="12"/>
+      <c r="C88" s="11"/>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="8"/>
+      <c r="A89" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B89" s="12"/>
+      <c r="C89" s="11"/>
     </row>
     <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="8"/>
+      <c r="A90" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B90" s="12"/>
+      <c r="C90" s="11"/>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="8"/>
+      <c r="A91" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" s="12"/>
+      <c r="C91" s="11"/>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="8"/>
+      <c r="A92" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92" s="12"/>
+      <c r="C92" s="11"/>
     </row>
     <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="8"/>
+      <c r="A93" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" s="12"/>
+      <c r="C93" s="11"/>
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="8"/>
+      <c r="A94" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94" s="12"/>
+      <c r="C94" s="11"/>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="8"/>
+      <c r="A95" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95" s="12"/>
+      <c r="C95" s="11"/>
     </row>
     <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="8"/>
+      <c r="A96" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B96" s="12"/>
+      <c r="C96" s="11"/>
     </row>
     <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="8"/>
+      <c r="A97" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" s="12"/>
+      <c r="C97" s="11"/>
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="8"/>
+      <c r="A98" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" s="12"/>
+      <c r="C98" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1494,4 +2183,38 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>